--- a/results/budget_raw_LowGWP_Inhalers.xlsx
+++ b/results/budget_raw_LowGWP_Inhalers.xlsx
@@ -22,7 +22,7 @@
     <t>Parameters</t>
   </si>
   <si>
-    <t>LCHC_Laudium</t>
+    <t>MRH_Mamelodi</t>
   </si>
   <si>
     <t>facilities_number</t>
@@ -644,22 +644,22 @@
         <v>36</v>
       </c>
       <c r="E3">
-        <v>289877.07465</v>
+        <v>2128124.52639</v>
       </c>
       <c r="F3">
-        <v>289877.07465</v>
+        <v>2128124.52639</v>
       </c>
       <c r="G3">
-        <v>289877.07465</v>
+        <v>2128124.52639</v>
       </c>
       <c r="H3">
-        <v>289877.07465</v>
+        <v>2128124.52639</v>
       </c>
       <c r="I3">
-        <v>289877.07465</v>
+        <v>2128124.52639</v>
       </c>
       <c r="J3">
-        <v>289877.07465</v>
+        <v>2128124.52639</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -676,22 +676,22 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="F4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="G4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="H4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="I4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="J4">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -740,22 +740,22 @@
         <v>39</v>
       </c>
       <c r="E6">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="F6">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="G6">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="H6">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="I6">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
       <c r="J6">
-        <v>89731.38</v>
+        <v>1112993.8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -964,22 +964,22 @@
         <v>46</v>
       </c>
       <c r="E13">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
       <c r="F13">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
       <c r="G13">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
       <c r="H13">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
       <c r="I13">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
       <c r="J13">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1028,22 +1028,22 @@
         <v>48</v>
       </c>
       <c r="E15">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
       <c r="F15">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
       <c r="G15">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
       <c r="H15">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
       <c r="I15">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
       <c r="J15">
-        <v>79913.85000000001</v>
+        <v>314576.98</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1060,22 +1060,22 @@
         <v>49</v>
       </c>
       <c r="E16">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
       <c r="F16">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
       <c r="G16">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
       <c r="H16">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
       <c r="I16">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
       <c r="J16">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1124,22 +1124,22 @@
         <v>51</v>
       </c>
       <c r="E18">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
       <c r="F18">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
       <c r="G18">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
       <c r="H18">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
       <c r="I18">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
       <c r="J18">
-        <v>9245.639999999999</v>
+        <v>15960.58</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1156,22 +1156,22 @@
         <v>52</v>
       </c>
       <c r="E19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="F19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="G19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="H19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="I19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="J19">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1220,22 +1220,22 @@
         <v>54</v>
       </c>
       <c r="E21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="F21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="G21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="H21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="I21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
       <c r="J21">
-        <v>20513.68</v>
+        <v>404290.13</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1252,22 +1252,22 @@
         <v>55</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1316,22 +1316,22 @@
         <v>57</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>27835.6</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1348,22 +1348,22 @@
         <v>58</v>
       </c>
       <c r="E25">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
       <c r="F25">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
       <c r="G25">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
       <c r="H25">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
       <c r="I25">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
       <c r="J25">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1412,22 +1412,22 @@
         <v>60</v>
       </c>
       <c r="E27">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
       <c r="F27">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
       <c r="G27">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
       <c r="H27">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
       <c r="I27">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
       <c r="J27">
-        <v>34483.8</v>
+        <v>159163.18</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1444,22 +1444,22 @@
         <v>61</v>
       </c>
       <c r="E28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="F28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="G28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="H28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="I28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="J28">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1508,22 +1508,22 @@
         <v>63</v>
       </c>
       <c r="E30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="F30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="G30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="H30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="I30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
       <c r="J30">
-        <v>55930.77</v>
+        <v>93256.73</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1540,22 +1540,22 @@
         <v>64</v>
       </c>
       <c r="E31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="F31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="G31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="H31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="I31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
       <c r="J31">
-        <v>57954.65</v>
+        <v>47526.39</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1604,22 +1604,22 @@
         <v>66</v>
       </c>
       <c r="E33">
-        <v>57.95465000000005</v>
+        <v>47.52639000000004</v>
       </c>
       <c r="F33">
-        <v>57.95465000000005</v>
+        <v>47.52639000000004</v>
       </c>
       <c r="G33">
-        <v>57.95465000000005</v>
+        <v>47.52639000000004</v>
       </c>
       <c r="H33">
-        <v>57.95465000000005</v>
+        <v>47.52639000000004</v>
       </c>
       <c r="I33">
-        <v>57.95465000000005</v>
+        <v>47.52639000000004</v>
       </c>
       <c r="J33">
-        <v>57.95465000000005</v>
+        <v>47.52639000000004</v>
       </c>
     </row>
   </sheetData>
